--- a/results/HQscenario_longTermCO.xlsx
+++ b/results/HQscenario_longTermCO.xlsx
@@ -501,7 +501,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>5665752.319597358</v>
+        <v>5663605.863957345</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -510,7 +510,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>5665752.319597358</v>
+        <v>5663605.863957345</v>
       </c>
     </row>
     <row r="3">
@@ -534,7 +534,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>9811340.164664038</v>
+        <v>9807623.163770849</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -543,7 +543,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>9811340.164664038</v>
+        <v>9807623.163770849</v>
       </c>
     </row>
     <row r="4">
@@ -567,7 +567,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>111309.904341779</v>
+        <v>111267.7348718681</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -576,7 +576,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>111309.904341779</v>
+        <v>111267.7348718681</v>
       </c>
     </row>
     <row r="5">
@@ -633,7 +633,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>609403.5286023278</v>
+        <v>609172.6576487056</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -642,7 +642,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>609403.5286023278</v>
+        <v>609172.6576487056</v>
       </c>
     </row>
     <row r="7">
@@ -732,7 +732,7 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>2356228598.723887</v>
+        <v>2126499838.636096</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -741,7 +741,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>3361097715.68348</v>
+        <v>3131368955.59569</v>
       </c>
     </row>
     <row r="10">
@@ -798,7 +798,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>46432316.04920179</v>
+        <v>46414725.28613261</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -807,7 +807,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>46432316.04920179</v>
+        <v>46414725.28613261</v>
       </c>
     </row>
     <row r="12">
@@ -831,7 +831,7 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>70965210.18084688</v>
+        <v>70938325.19416815</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -840,7 +840,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>70965210.18084688</v>
+        <v>70938325.19416815</v>
       </c>
     </row>
     <row r="13">
@@ -864,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>241943.7150810587</v>
+        <v>241852.0553291834</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -873,7 +873,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>241943.7150810587</v>
+        <v>241852.0553291834</v>
       </c>
     </row>
     <row r="14">
@@ -963,7 +963,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>9933957.262493221</v>
+        <v>9930193.808429059</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -972,7 +972,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>9933957.262493221</v>
+        <v>9930193.808429059</v>
       </c>
     </row>
     <row r="17">
@@ -1128,7 +1128,7 @@
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>151173409.3810207</v>
+        <v>151116137.7251342</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
@@ -1137,7 +1137,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>151173409.3810207</v>
+        <v>151116137.7251342</v>
       </c>
     </row>
     <row r="22">
@@ -1161,7 +1161,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>18209607.57841656</v>
+        <v>18202708.91559398</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -1170,7 +1170,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>18209607.57841656</v>
+        <v>18202708.91559398</v>
       </c>
     </row>
     <row r="23">
@@ -1194,7 +1194,7 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>6024928.205442239</v>
+        <v>6022645.676945094</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -1203,7 +1203,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>6024928.205442239</v>
+        <v>6022645.676945094</v>
       </c>
     </row>
     <row r="24">
@@ -1260,7 +1260,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>255823890.5113559</v>
+        <v>255726972.2908508</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -1269,7 +1269,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>255823890.5113559</v>
+        <v>255726972.2908508</v>
       </c>
     </row>
     <row r="26">
@@ -1284,7 +1284,7 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>79192.33601442508</v>
+        <v>79195.45192008157</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -1293,7 +1293,7 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>71169226.68543568</v>
+        <v>71142231.28991313</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -1302,7 +1302,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>71248419.0214501</v>
+        <v>71221426.74183321</v>
       </c>
     </row>
     <row r="27">
@@ -1449,7 +1449,7 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>76952265.35560679</v>
+        <v>76501409.41965269</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -1458,7 +1458,7 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>977.3046289771761</v>
+        <v>976.9343620664716</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -1467,7 +1467,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>76953242.66023578</v>
+        <v>76502386.35401475</v>
       </c>
     </row>
     <row r="32">
@@ -1590,7 +1590,7 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>46104125.87471173</v>
+        <v>46086659.44564293</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -1599,7 +1599,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>46104125.87471173</v>
+        <v>46086659.44564293</v>
       </c>
     </row>
     <row r="36">
@@ -1623,7 +1623,7 @@
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>150048533.1615168</v>
+        <v>149991687.6620822</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
@@ -1632,7 +1632,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>150048533.1615168</v>
+        <v>149991687.6620822</v>
       </c>
     </row>
     <row r="37">
@@ -1689,7 +1689,7 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>191676.9718527423</v>
+        <v>191604.3555267743</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -1698,7 +1698,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>191676.9718527423</v>
+        <v>191604.3555267743</v>
       </c>
     </row>
     <row r="39">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>405259291.7082416</v>
+        <v>402885417.9541403</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -1755,7 +1755,7 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>75382607.93759878</v>
+        <v>75354013.87164921</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -1764,7 +1764,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>480641899.6458403</v>
+        <v>478239431.8257895</v>
       </c>
     </row>
     <row r="41">
@@ -1920,7 +1920,7 @@
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>2067709.038136826</v>
+        <v>2066925.691905565</v>
       </c>
       <c r="G45" t="n">
         <v>0</v>
@@ -1929,7 +1929,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>2067709.038136826</v>
+        <v>2066925.691905565</v>
       </c>
     </row>
     <row r="46">
@@ -1953,7 +1953,7 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>86448456.33523396</v>
+        <v>86415705.56071998</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -1962,7 +1962,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>86448456.33523396</v>
+        <v>86415705.56071998</v>
       </c>
     </row>
     <row r="47">
@@ -2019,7 +2019,7 @@
         <v>0</v>
       </c>
       <c r="F48" t="n">
-        <v>156130247.8067085</v>
+        <v>156071098.2653807</v>
       </c>
       <c r="G48" t="n">
         <v>0</v>
@@ -2028,7 +2028,7 @@
         <v>0</v>
       </c>
       <c r="I48" t="n">
-        <v>156130247.8067085</v>
+        <v>156071098.2653807</v>
       </c>
     </row>
     <row r="49">
@@ -2085,7 +2085,7 @@
         <v>0</v>
       </c>
       <c r="F50" t="n">
-        <v>371.8600884255467</v>
+        <v>371.7192101910118</v>
       </c>
       <c r="G50" t="n">
         <v>0</v>
@@ -2094,7 +2094,7 @@
         <v>0</v>
       </c>
       <c r="I50" t="n">
-        <v>371.8600884255467</v>
+        <v>371.7192101910118</v>
       </c>
     </row>
     <row r="51">
@@ -2151,7 +2151,7 @@
         <v>0</v>
       </c>
       <c r="F52" t="n">
-        <v>9961653.429007962</v>
+        <v>9957879.482322613</v>
       </c>
       <c r="G52" t="n">
         <v>0</v>
@@ -2160,7 +2160,7 @@
         <v>0</v>
       </c>
       <c r="I52" t="n">
-        <v>9961653.429007962</v>
+        <v>9957879.482322613</v>
       </c>
     </row>
     <row r="53">
@@ -2184,7 +2184,7 @@
         <v>0</v>
       </c>
       <c r="F53" t="n">
-        <v>4988.890056461391</v>
+        <v>4987.000028342432</v>
       </c>
       <c r="G53" t="n">
         <v>0</v>
@@ -2193,7 +2193,7 @@
         <v>0</v>
       </c>
       <c r="I53" t="n">
-        <v>4988.890056461391</v>
+        <v>4987.000028342432</v>
       </c>
     </row>
     <row r="54">
@@ -2217,7 +2217,7 @@
         <v>0</v>
       </c>
       <c r="F54" t="n">
-        <v>44503468.69454916</v>
+        <v>44486608.67032093</v>
       </c>
       <c r="G54" t="n">
         <v>0</v>
@@ -2226,7 +2226,7 @@
         <v>0</v>
       </c>
       <c r="I54" t="n">
-        <v>44503468.69454916</v>
+        <v>44486608.67032093</v>
       </c>
     </row>
     <row r="55">
@@ -2307,7 +2307,7 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>117840314.0729189</v>
+        <v>117149899.0231743</v>
       </c>
       <c r="D57" t="n">
         <v>0</v>
@@ -2316,7 +2316,7 @@
         <v>0</v>
       </c>
       <c r="F57" t="n">
-        <v>74222.51266132492</v>
+        <v>74194.39088048485</v>
       </c>
       <c r="G57" t="n">
         <v>0</v>
@@ -2325,7 +2325,7 @@
         <v>0</v>
       </c>
       <c r="I57" t="n">
-        <v>117914536.5855802</v>
+        <v>117224093.4140547</v>
       </c>
     </row>
     <row r="58">
@@ -2349,7 +2349,7 @@
         <v>0</v>
       </c>
       <c r="F58" t="n">
-        <v>122632827.4396972</v>
+        <v>122586368.3096011</v>
       </c>
       <c r="G58" t="n">
         <v>0</v>
@@ -2358,7 +2358,7 @@
         <v>0</v>
       </c>
       <c r="I58" t="n">
-        <v>122632827.4396972</v>
+        <v>122586368.3096011</v>
       </c>
     </row>
     <row r="59">
@@ -2382,7 +2382,7 @@
         <v>0</v>
       </c>
       <c r="F59" t="n">
-        <v>101116.5098382031</v>
+        <v>101078.2021094854</v>
       </c>
       <c r="G59" t="n">
         <v>0</v>
@@ -2391,7 +2391,7 @@
         <v>0</v>
       </c>
       <c r="I59" t="n">
-        <v>101116.5098382031</v>
+        <v>101078.2021094854</v>
       </c>
     </row>
     <row r="60">
@@ -2448,7 +2448,7 @@
         <v>0</v>
       </c>
       <c r="F61" t="n">
-        <v>49243888.38211724</v>
+        <v>49225232.46212787</v>
       </c>
       <c r="G61" t="n">
         <v>0</v>
@@ -2457,7 +2457,7 @@
         <v>0</v>
       </c>
       <c r="I61" t="n">
-        <v>49243888.38211724</v>
+        <v>49225232.46212787</v>
       </c>
     </row>
     <row r="62">
@@ -2472,7 +2472,7 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>68528041.6709657</v>
+        <v>68126542.45270517</v>
       </c>
       <c r="D62" t="n">
         <v>0</v>
@@ -2481,7 +2481,7 @@
         <v>0</v>
       </c>
       <c r="F62" t="n">
-        <v>44142640.8010779</v>
+        <v>44125917.47556563</v>
       </c>
       <c r="G62" t="n">
         <v>0</v>
@@ -2490,7 +2490,7 @@
         <v>0</v>
       </c>
       <c r="I62" t="n">
-        <v>112670682.4720436</v>
+        <v>112252459.9282708</v>
       </c>
     </row>
     <row r="63">
@@ -2514,7 +2514,7 @@
         <v>0</v>
       </c>
       <c r="F63" t="n">
-        <v>144968926.5932985</v>
+        <v>144914005.4896991</v>
       </c>
       <c r="G63" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="I63" t="n">
-        <v>144968926.5932985</v>
+        <v>144914005.4896991</v>
       </c>
     </row>
     <row r="64">
@@ -2604,7 +2604,7 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>2214097325.319032</v>
+        <v>1001845064.066102</v>
       </c>
       <c r="D66" t="n">
         <v>0</v>
@@ -2622,7 +2622,7 @@
         <v>0</v>
       </c>
       <c r="I66" t="n">
-        <v>4592771188.919132</v>
+        <v>3380518927.666202</v>
       </c>
     </row>
     <row r="67">
@@ -2712,7 +2712,7 @@
         <v>0</v>
       </c>
       <c r="F69" t="n">
-        <v>87146928.9046647</v>
+        <v>87113913.5156209</v>
       </c>
       <c r="G69" t="n">
         <v>0</v>
@@ -2721,7 +2721,7 @@
         <v>0</v>
       </c>
       <c r="I69" t="n">
-        <v>87146928.9046647</v>
+        <v>87113913.5156209</v>
       </c>
     </row>
     <row r="70">
@@ -2769,7 +2769,7 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>2891180324.77426</v>
+        <v>2874242936.451978</v>
       </c>
       <c r="D71" t="n">
         <v>0</v>
@@ -2778,7 +2778,7 @@
         <v>0</v>
       </c>
       <c r="F71" t="n">
-        <v>72272303.26627634</v>
+        <v>72244798.32711643</v>
       </c>
       <c r="G71" t="n">
         <v>0</v>
@@ -2787,7 +2787,7 @@
         <v>0</v>
       </c>
       <c r="I71" t="n">
-        <v>2963452628.040536</v>
+        <v>2946487734.779095</v>
       </c>
     </row>
     <row r="72">
@@ -2811,7 +2811,7 @@
         <v>0</v>
       </c>
       <c r="F72" t="n">
-        <v>3104231.225968939</v>
+        <v>3103055.195982623</v>
       </c>
       <c r="G72" t="n">
         <v>0</v>
@@ -2820,7 +2820,7 @@
         <v>0</v>
       </c>
       <c r="I72" t="n">
-        <v>3104231.225968939</v>
+        <v>3103055.195982623</v>
       </c>
     </row>
     <row r="73">
@@ -2835,7 +2835,7 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>181386.7968841937</v>
+        <v>181393.9337382741</v>
       </c>
       <c r="D73" t="n">
         <v>0</v>
@@ -2844,7 +2844,7 @@
         <v>0</v>
       </c>
       <c r="F73" t="n">
-        <v>65359208.66493109</v>
+        <v>65334371.64268081</v>
       </c>
       <c r="G73" t="n">
         <v>0</v>
@@ -2853,7 +2853,7 @@
         <v>0</v>
       </c>
       <c r="I73" t="n">
-        <v>65540595.46181528</v>
+        <v>65515765.57641909</v>
       </c>
     </row>
     <row r="74">
@@ -2910,7 +2910,7 @@
         <v>0</v>
       </c>
       <c r="F75" t="n">
-        <v>257948023.5641554</v>
+        <v>257850300.6213267</v>
       </c>
       <c r="G75" t="n">
         <v>0</v>
@@ -2919,7 +2919,7 @@
         <v>0</v>
       </c>
       <c r="I75" t="n">
-        <v>257948023.5641554</v>
+        <v>257850300.6213267</v>
       </c>
     </row>
     <row r="76">
@@ -3000,7 +3000,7 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>21.13530734140502</v>
+        <v>21.1361389322762</v>
       </c>
       <c r="D78" t="n">
         <v>0</v>
@@ -3009,7 +3009,7 @@
         <v>0</v>
       </c>
       <c r="F78" t="n">
-        <v>13568228.50844968</v>
+        <v>13563088.21126729</v>
       </c>
       <c r="G78" t="n">
         <v>0</v>
@@ -3018,7 +3018,7 @@
         <v>0</v>
       </c>
       <c r="I78" t="n">
-        <v>13568249.64375702</v>
+        <v>13563109.34740622</v>
       </c>
     </row>
     <row r="79">
@@ -3108,7 +3108,7 @@
         <v>0</v>
       </c>
       <c r="F81" t="n">
-        <v>1460617.891496609</v>
+        <v>1460064.540179033</v>
       </c>
       <c r="G81" t="n">
         <v>0</v>
@@ -3117,7 +3117,7 @@
         <v>0</v>
       </c>
       <c r="I81" t="n">
-        <v>1460617.891496609</v>
+        <v>1460064.540179033</v>
       </c>
     </row>
     <row r="82">
@@ -3141,7 +3141,7 @@
         <v>0</v>
       </c>
       <c r="F82" t="n">
-        <v>6866621.056720234</v>
+        <v>6864019.655059231</v>
       </c>
       <c r="G82" t="n">
         <v>0</v>
@@ -3150,7 +3150,7 @@
         <v>0</v>
       </c>
       <c r="I82" t="n">
-        <v>6866621.056720234</v>
+        <v>6864019.655059231</v>
       </c>
     </row>
     <row r="83">
@@ -3174,7 +3174,7 @@
         <v>0</v>
       </c>
       <c r="F83" t="n">
-        <v>60169.41599179804</v>
+        <v>60146.62096387825</v>
       </c>
       <c r="G83" t="n">
         <v>0</v>
@@ -3183,7 +3183,7 @@
         <v>0</v>
       </c>
       <c r="I83" t="n">
-        <v>60169.41599179804</v>
+        <v>60146.62096387825</v>
       </c>
     </row>
     <row r="84">
@@ -3240,7 +3240,7 @@
         <v>0</v>
       </c>
       <c r="F85" t="n">
-        <v>70626092.71800399</v>
+        <v>70599336.20510061</v>
       </c>
       <c r="G85" t="n">
         <v>0</v>
@@ -3249,7 +3249,7 @@
         <v>0</v>
       </c>
       <c r="I85" t="n">
-        <v>70626092.71800399</v>
+        <v>70599336.20510061</v>
       </c>
     </row>
     <row r="86">
@@ -3339,7 +3339,7 @@
         <v>0</v>
       </c>
       <c r="F88" t="n">
-        <v>428800.1224611888</v>
+        <v>428637.6726417514</v>
       </c>
       <c r="G88" t="n">
         <v>0</v>
@@ -3348,7 +3348,7 @@
         <v>0</v>
       </c>
       <c r="I88" t="n">
-        <v>428800.1224611888</v>
+        <v>428637.6726417514</v>
       </c>
     </row>
     <row r="89">
@@ -3405,7 +3405,7 @@
         <v>0</v>
       </c>
       <c r="F90" t="n">
-        <v>7121897349.414431</v>
+        <v>7119199236.988942</v>
       </c>
       <c r="G90" t="n">
         <v>0</v>
@@ -3414,7 +3414,7 @@
         <v>0</v>
       </c>
       <c r="I90" t="n">
-        <v>7121897349.414431</v>
+        <v>7119199236.988942</v>
       </c>
     </row>
     <row r="91">
